--- a/outputs-HGR-r202/g__CAG-177.xlsx
+++ b/outputs-HGR-r202/g__CAG-177.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -474,29 +474,29 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT56660.fa</t>
+          <t>even_MAG-GUT29784.fa</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.8261621689696329</v>
+        <v>0.02833688237157097</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1200238258556044</v>
+        <v>0.3158947299358836</v>
       </c>
       <c r="D2" t="n">
-        <v>0.05381400517476269</v>
+        <v>0.6557683876925453</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8261621689696329</v>
+        <v>0.6557683876925453</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>s__CAG-177 sp000431775</t>
+          <t>s__CAG-177 sp003538135</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>s__CAG-177 sp000431775</t>
+          <t>s__CAG-177 sp003538135(reject)</t>
         </is>
       </c>
     </row>
@@ -532,29 +532,29 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT61918.fa</t>
+          <t>even_MAG-GUT78307.fa</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.8242119836885737</v>
+        <v>0.02613084547818972</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1268979190030428</v>
+        <v>0.2898282309687435</v>
       </c>
       <c r="D4" t="n">
-        <v>0.04889009730838347</v>
+        <v>0.6840409235530668</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8242119836885737</v>
+        <v>0.6840409235530668</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>s__CAG-177 sp000431775</t>
+          <t>s__CAG-177 sp003538135</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>s__CAG-177 sp000431775</t>
+          <t>s__CAG-177 sp003538135(reject)</t>
         </is>
       </c>
     </row>
@@ -619,20 +619,20 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT8287.fa</t>
+          <t>even_MAG-GUT8080.fa</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.8130629013726378</v>
+        <v>0.8494492583177626</v>
       </c>
       <c r="C7" t="n">
-        <v>0.120190984593879</v>
+        <v>0.1206775928805261</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0667461140334832</v>
+        <v>0.02987314880171118</v>
       </c>
       <c r="E7" t="n">
-        <v>0.8130629013726378</v>
+        <v>0.8494492583177626</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -648,20 +648,20 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT8687.fa</t>
+          <t>even_MAG-GUT8287.fa</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.620894389028928</v>
+        <v>0.8130629013726378</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1538891412491379</v>
+        <v>0.120190984593879</v>
       </c>
       <c r="D8" t="n">
-        <v>0.2252164697219341</v>
+        <v>0.0667461140334832</v>
       </c>
       <c r="E8" t="n">
-        <v>0.620894389028928</v>
+        <v>0.8130629013726378</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -670,36 +670,65 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>s__CAG-177 sp000431775(reject)</t>
+          <t>s__CAG-177 sp000431775</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
+          <t>even_MAG-GUT8687.fa</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0.620894389028928</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.1538891412491379</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.2252164697219341</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.620894389028928</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>s__CAG-177 sp000431775</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>s__CAG-177 sp000431775</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
           <t>even_MAG-GUT9005.fa</t>
         </is>
       </c>
-      <c r="B9" t="n">
+      <c r="B10" t="n">
         <v>0.7195722453602044</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>0.1280031259267907</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>0.152424628713005</v>
       </c>
-      <c r="E9" t="n">
+      <c r="E10" t="n">
         <v>0.7195722453602044</v>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>s__CAG-177 sp000431775</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>s__CAG-177 sp000431775(reject)</t>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>s__CAG-177 sp000431775</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>s__CAG-177 sp000431775</t>
         </is>
       </c>
     </row>

--- a/outputs-HGR-r202/g__CAG-177.xlsx
+++ b/outputs-HGR-r202/g__CAG-177.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -465,6 +465,11 @@
           <t>prediction</t>
         </is>
       </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>rejection-f</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -489,6 +494,11 @@
           <t>s__CAG-177 sp003538135</t>
         </is>
       </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>s__CAG-177 sp003538135</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -513,6 +523,11 @@
           <t>s__CAG-177 sp003514385</t>
         </is>
       </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>s__CAG-177 sp003514385</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -537,6 +552,11 @@
           <t>s__CAG-177 sp003538135</t>
         </is>
       </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>s__CAG-177 sp003538135</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -561,6 +581,11 @@
           <t>s__CAG-177 sp003514385</t>
         </is>
       </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>s__CAG-177 sp003514385</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -585,6 +610,11 @@
           <t>s__CAG-177 sp003538135</t>
         </is>
       </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>s__CAG-177 sp003538135</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -609,6 +639,11 @@
           <t>s__CAG-177 sp003538135</t>
         </is>
       </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>s__CAG-177 sp003538135</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -633,6 +668,11 @@
           <t>s__CAG-177 sp003514385</t>
         </is>
       </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>s__CAG-177 sp003514385</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -657,6 +697,11 @@
           <t>s__CAG-177 sp003538135</t>
         </is>
       </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>s__CAG-177 sp003538135</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -681,6 +726,11 @@
           <t>s__CAG-177 sp003538135</t>
         </is>
       </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>s__CAG-177 sp003538135</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -705,6 +755,11 @@
           <t>s__CAG-177 sp003514385</t>
         </is>
       </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>s__CAG-177 sp003514385</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -729,6 +784,11 @@
           <t>s__CAG-177 sp000431775</t>
         </is>
       </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>s__CAG-177 sp000431775</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -753,6 +813,11 @@
           <t>s__CAG-177 sp000431775</t>
         </is>
       </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>s__CAG-177 sp000431775</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -777,6 +842,11 @@
           <t>s__CAG-177 sp003514385</t>
         </is>
       </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>s__CAG-177 sp003514385</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -801,6 +871,11 @@
           <t>s__CAG-177 sp000431775</t>
         </is>
       </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>s__CAG-177 sp000431775</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -825,6 +900,11 @@
           <t>s__CAG-177 sp003514385</t>
         </is>
       </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>s__CAG-177 sp003514385</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -849,6 +929,11 @@
           <t>s__CAG-177 sp003538135</t>
         </is>
       </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>s__CAG-177 sp003538135</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -873,6 +958,11 @@
           <t>s__CAG-177 sp003538135</t>
         </is>
       </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>s__CAG-177 sp003538135</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -897,6 +987,11 @@
           <t>s__CAG-177 sp000431775</t>
         </is>
       </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>s__CAG-177 sp000431775</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -921,6 +1016,11 @@
           <t>s__CAG-177 sp000431775</t>
         </is>
       </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>s__CAG-177 sp000431775</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -945,6 +1045,11 @@
           <t>s__CAG-177 sp000431775</t>
         </is>
       </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>s__CAG-177 sp000431775</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -969,6 +1074,11 @@
           <t>s__CAG-177 sp003538135</t>
         </is>
       </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>s__CAG-177 sp003538135</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -993,6 +1103,11 @@
           <t>s__CAG-177 sp003538135</t>
         </is>
       </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>s__CAG-177 sp003538135</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -1017,6 +1132,11 @@
           <t>s__CAG-177 sp000431775</t>
         </is>
       </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>s__CAG-177 sp000431775</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -1037,6 +1157,11 @@
         <v>0.7195722453602044</v>
       </c>
       <c r="F25" t="inlineStr">
+        <is>
+          <t>s__CAG-177 sp000431775</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
         <is>
           <t>s__CAG-177 sp000431775</t>
         </is>

--- a/outputs-HGR-r202/g__CAG-177.xlsx
+++ b/outputs-HGR-r202/g__CAG-177.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G25"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -474,20 +474,20 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT11449.fa</t>
+          <t>even_MAG-GUT29784.fa</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.02650117239214008</v>
+        <v>0.02833688237157097</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3496810298525502</v>
+        <v>0.3158947299358836</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6238177977553098</v>
+        <v>0.6557683876925453</v>
       </c>
       <c r="E2" t="n">
-        <v>0.6238177977553098</v>
+        <v>0.6557683876925453</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -503,665 +503,230 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT12186.fa</t>
+          <t>even_MAG-GUT56987.fa</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.06126617809588897</v>
+        <v>0.8211219826958505</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4792640752789476</v>
+        <v>0.11790444996549</v>
       </c>
       <c r="D3" t="n">
-        <v>0.4594697466251635</v>
+        <v>0.06097356733865944</v>
       </c>
       <c r="E3" t="n">
-        <v>0.4792640752789476</v>
+        <v>0.8211219826958505</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>s__CAG-177 sp003514385</t>
+          <t>s__CAG-177 sp000431775</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>s__CAG-177 sp003514385</t>
+          <t>s__CAG-177 sp000431775</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT16017.fa</t>
+          <t>even_MAG-GUT61918.fa</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.04088415309052723</v>
+        <v>0.8242119836885737</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3169224062039111</v>
+        <v>0.1268979190030428</v>
       </c>
       <c r="D4" t="n">
-        <v>0.6421934407055617</v>
+        <v>0.04889009730838347</v>
       </c>
       <c r="E4" t="n">
-        <v>0.6421934407055617</v>
+        <v>0.8242119836885737</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>s__CAG-177 sp003538135</t>
+          <t>s__CAG-177 sp000431775</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>s__CAG-177 sp003538135</t>
+          <t>s__CAG-177 sp000431775</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT18577.fa</t>
+          <t>even_MAG-GUT78307.fa</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.06356361788092418</v>
+        <v>0.02613084547818972</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5263943754209646</v>
+        <v>0.2898282309687435</v>
       </c>
       <c r="D5" t="n">
-        <v>0.4100420066981112</v>
+        <v>0.6840409235530668</v>
       </c>
       <c r="E5" t="n">
-        <v>0.5263943754209646</v>
+        <v>0.6840409235530668</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>s__CAG-177 sp003514385</t>
+          <t>s__CAG-177 sp003538135</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>s__CAG-177 sp003514385</t>
+          <t>s__CAG-177 sp003538135</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT25808.fa</t>
+          <t>even_MAG-GUT7944.fa</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.03997523729074842</v>
+        <v>0.7941593056977946</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3090728339756532</v>
+        <v>0.1116424522485027</v>
       </c>
       <c r="D6" t="n">
-        <v>0.6509519287335985</v>
+        <v>0.09419824205370267</v>
       </c>
       <c r="E6" t="n">
-        <v>0.6509519287335985</v>
+        <v>0.7941593056977946</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>s__CAG-177 sp003538135</t>
+          <t>s__CAG-177 sp000431775</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>s__CAG-177 sp003538135</t>
+          <t>s__CAG-177 sp000431775</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT29784.fa</t>
+          <t>even_MAG-GUT8056.fa</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.02833688237157097</v>
+        <v>0.8118266765860653</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3158947299358836</v>
+        <v>0.1166101199706832</v>
       </c>
       <c r="D7" t="n">
-        <v>0.6557683876925453</v>
+        <v>0.07156320344325146</v>
       </c>
       <c r="E7" t="n">
-        <v>0.6557683876925453</v>
+        <v>0.8118266765860653</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>s__CAG-177 sp003538135</t>
+          <t>s__CAG-177 sp000431775</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>s__CAG-177 sp003538135</t>
+          <t>s__CAG-177 sp000431775</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT34592.fa</t>
+          <t>even_MAG-GUT8080.fa</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.06984063143741447</v>
+        <v>0.8494492583177626</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5682711664600922</v>
+        <v>0.1206775928805261</v>
       </c>
       <c r="D8" t="n">
-        <v>0.3618882021024932</v>
+        <v>0.02987314880171118</v>
       </c>
       <c r="E8" t="n">
-        <v>0.5682711664600922</v>
+        <v>0.8494492583177626</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>s__CAG-177 sp003514385</t>
+          <t>s__CAG-177 sp000431775</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>s__CAG-177 sp003514385</t>
+          <t>s__CAG-177 sp000431775</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT52236.fa</t>
+          <t>even_MAG-GUT8287.fa</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.03187320276007879</v>
+        <v>0.8130629013726378</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3105959841746246</v>
+        <v>0.120190984593879</v>
       </c>
       <c r="D9" t="n">
-        <v>0.6575308130652967</v>
+        <v>0.0667461140334832</v>
       </c>
       <c r="E9" t="n">
-        <v>0.6575308130652967</v>
+        <v>0.8130629013726378</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>s__CAG-177 sp003538135</t>
+          <t>s__CAG-177 sp000431775</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>s__CAG-177 sp003538135</t>
+          <t>s__CAG-177 sp000431775</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT52246.fa</t>
+          <t>even_MAG-GUT9005.fa</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.03935959854622632</v>
+        <v>0.7195722453602044</v>
       </c>
       <c r="C10" t="n">
-        <v>0.3250873142831915</v>
+        <v>0.1280031259267907</v>
       </c>
       <c r="D10" t="n">
-        <v>0.6355530871705822</v>
+        <v>0.152424628713005</v>
       </c>
       <c r="E10" t="n">
-        <v>0.6355530871705822</v>
+        <v>0.7195722453602044</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>s__CAG-177 sp003538135</t>
+          <t>s__CAG-177 sp000431775</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
-        <is>
-          <t>s__CAG-177 sp003538135</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT53548.fa</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>0.06357603455119475</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.498362829943325</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0.4380611355054803</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0.498362829943325</v>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>s__CAG-177 sp003514385</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>s__CAG-177 sp003514385</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT56660.fa</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>0.8261621689696329</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.1200238258556044</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0.05381400517476269</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0.8261621689696329</v>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>s__CAG-177 sp000431775</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>s__CAG-177 sp000431775</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT56987.fa</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>0.8211219826958505</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.11790444996549</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0.06097356733865944</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0.8211219826958505</v>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>s__CAG-177 sp000431775</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>s__CAG-177 sp000431775</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT58432.fa</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>0.06296459156507643</v>
-      </c>
-      <c r="C14" t="n">
-        <v>0.5095314216337624</v>
-      </c>
-      <c r="D14" t="n">
-        <v>0.4275039868011613</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0.5095314216337624</v>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>s__CAG-177 sp003514385</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>s__CAG-177 sp003514385</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT61918.fa</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>0.8242119836885737</v>
-      </c>
-      <c r="C15" t="n">
-        <v>0.1268979190030428</v>
-      </c>
-      <c r="D15" t="n">
-        <v>0.04889009730838347</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0.8242119836885737</v>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>s__CAG-177 sp000431775</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>s__CAG-177 sp000431775</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT76200.fa</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>0.05556922575807777</v>
-      </c>
-      <c r="C16" t="n">
-        <v>0.5026680075500197</v>
-      </c>
-      <c r="D16" t="n">
-        <v>0.4417627666919025</v>
-      </c>
-      <c r="E16" t="n">
-        <v>0.5026680075500197</v>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>s__CAG-177 sp003514385</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>s__CAG-177 sp003514385</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT78002.fa</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>0.03440792284586491</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0.2862322068770536</v>
-      </c>
-      <c r="D17" t="n">
-        <v>0.6793598702770816</v>
-      </c>
-      <c r="E17" t="n">
-        <v>0.6793598702770816</v>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>s__CAG-177 sp003538135</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>s__CAG-177 sp003538135</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT78307.fa</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>0.02613084547818972</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0.2898282309687435</v>
-      </c>
-      <c r="D18" t="n">
-        <v>0.6840409235530668</v>
-      </c>
-      <c r="E18" t="n">
-        <v>0.6840409235530668</v>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>s__CAG-177 sp003538135</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>s__CAG-177 sp003538135</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT7944.fa</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>0.7941593056977946</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.1116424522485027</v>
-      </c>
-      <c r="D19" t="n">
-        <v>0.09419824205370267</v>
-      </c>
-      <c r="E19" t="n">
-        <v>0.7941593056977946</v>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>s__CAG-177 sp000431775</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>s__CAG-177 sp000431775</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT8056.fa</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>0.8118266765860653</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0.1166101199706832</v>
-      </c>
-      <c r="D20" t="n">
-        <v>0.07156320344325146</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0.8118266765860653</v>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>s__CAG-177 sp000431775</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>s__CAG-177 sp000431775</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT8080.fa</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>0.8494492583177626</v>
-      </c>
-      <c r="C21" t="n">
-        <v>0.1206775928805261</v>
-      </c>
-      <c r="D21" t="n">
-        <v>0.02987314880171118</v>
-      </c>
-      <c r="E21" t="n">
-        <v>0.8494492583177626</v>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>s__CAG-177 sp000431775</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>s__CAG-177 sp000431775</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT81671.fa</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>0.1417665117410373</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0.2773260417462207</v>
-      </c>
-      <c r="D22" t="n">
-        <v>0.580907446512742</v>
-      </c>
-      <c r="E22" t="n">
-        <v>0.580907446512742</v>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>s__CAG-177 sp003538135</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>s__CAG-177 sp003538135</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT82176.fa</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>0.2212907799001723</v>
-      </c>
-      <c r="C23" t="n">
-        <v>0.2537279675113883</v>
-      </c>
-      <c r="D23" t="n">
-        <v>0.5249812525884393</v>
-      </c>
-      <c r="E23" t="n">
-        <v>0.5249812525884393</v>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>s__CAG-177 sp003538135</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>s__CAG-177 sp003538135</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT8287.fa</t>
-        </is>
-      </c>
-      <c r="B24" t="n">
-        <v>0.8130629013726378</v>
-      </c>
-      <c r="C24" t="n">
-        <v>0.120190984593879</v>
-      </c>
-      <c r="D24" t="n">
-        <v>0.0667461140334832</v>
-      </c>
-      <c r="E24" t="n">
-        <v>0.8130629013726378</v>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>s__CAG-177 sp000431775</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>s__CAG-177 sp000431775</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT9005.fa</t>
-        </is>
-      </c>
-      <c r="B25" t="n">
-        <v>0.7195722453602044</v>
-      </c>
-      <c r="C25" t="n">
-        <v>0.1280031259267907</v>
-      </c>
-      <c r="D25" t="n">
-        <v>0.152424628713005</v>
-      </c>
-      <c r="E25" t="n">
-        <v>0.7195722453602044</v>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>s__CAG-177 sp000431775</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
         <is>
           <t>s__CAG-177 sp000431775</t>
         </is>
